--- a/DataSheet/CPC_1stTouchPoint_Approval.xlsx
+++ b/DataSheet/CPC_1stTouchPoint_Approval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE6E4B-657E-438E-9542-00F9393E2E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E6ADB-5B8B-4F71-8D8E-9396525AD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="179">
   <si>
     <t>Si_No</t>
   </si>
@@ -271,9 +271,6 @@
     <t>applicationID</t>
   </si>
   <si>
-    <t>MF24120700003849</t>
-  </si>
-  <si>
     <t>CPC_1stTouchPoint_Approval</t>
   </si>
   <si>
@@ -322,32 +319,257 @@
     <t>WAIT(7000)</t>
   </si>
   <si>
-    <t>//force-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow']//div[@class='slds-grid']/a/span/slot/span</t>
-  </si>
-  <si>
     <t>(//force-owner-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow has-avatar']//div[@class='slds-grid']/a/span/slot/span)[2]</t>
   </si>
   <si>
+    <t>//div[@class='slds-form-element slds-hint-parent test-id__output-root slds-form-element_edit slds-form-element_readonly slds-form-element_stacked']/dt</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[2]</t>
+  </si>
+  <si>
+    <t>ScrollDown(1500)</t>
+  </si>
+  <si>
+    <t>Documents Send Back</t>
+  </si>
+  <si>
+    <t>DocumentsSendBack</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[1]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[1]</t>
+  </si>
+  <si>
+    <t>//span[text()='Margin Amount Details Send Back']</t>
+  </si>
+  <si>
+    <t>Margin Amount Details Send Back</t>
+  </si>
+  <si>
+    <t>MarginAmountDetailsSendBack</t>
+  </si>
+  <si>
+    <t>WAIT(2000)</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[3]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[2]</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[1]</t>
+  </si>
+  <si>
+    <t>ScrollUp(2000)</t>
+  </si>
+  <si>
+    <t>ClickOnEditSign</t>
+  </si>
+  <si>
+    <t>//div[@class='slds-grid slds-m-left_x-large slds-p-around_xxx-small slds-form-element slds-form-element_edit slds-form-element_readonly slds-hint-parent']/div/lightning-output-field/span</t>
+  </si>
+  <si>
+    <t>SFDC_SearchBar</t>
+  </si>
+  <si>
     <t>SFDC_SearchBar1</t>
   </si>
   <si>
-    <t>//div[@class='slds-form-element slds-hint-parent test-id__output-root slds-form-element_edit slds-form-element_readonly slds-form-element_stacked']//dt//div//span</t>
-  </si>
-  <si>
-    <t>//div[@class='slds-form-element slds-hint-parent test-id__output-root slds-form-element_edit slds-form-element_readonly slds-form-element_stacked']//dd//div//button</t>
-  </si>
-  <si>
-    <t>//div[@class='slds-form-element slds-hint-parent test-id__output-root slds-form-element_edit slds-form-element_readonly slds-form-element_stacked']/dt</t>
-  </si>
-  <si>
-    <t>EditSignGetText</t>
+    <t>//table[@role="grid"]/tbody/tr/th/lightning-primitive-cell-factory/span/div/lightning-primitive-custom-cell/lst-output-lookup/force-lookup/div/records-hoverable-link/div/a/span/slot/span</t>
+  </si>
+  <si>
+    <t>//a[text()='Applicant Details']</t>
+  </si>
+  <si>
+    <t>//span[text()='Personal &amp; Contact Details Send Back']</t>
+  </si>
+  <si>
+    <t>Personal &amp; Contact Details Send Back</t>
+  </si>
+  <si>
+    <t>Personal&amp;ContactDetailsSendBack</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[4]</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[4]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[4]</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[5]</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[5]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[5]</t>
+  </si>
+  <si>
+    <t>//div[text()='KYC Details Send Back']</t>
+  </si>
+  <si>
+    <t>//div[text()='Basic Customer Profile Send Back']</t>
+  </si>
+  <si>
+    <t>//div[text()='Documents Send Back']</t>
+  </si>
+  <si>
+    <t>ScrollDown(200)</t>
+  </si>
+  <si>
+    <t>//a[text()='Address Details']</t>
+  </si>
+  <si>
+    <t>Address Details Send Back</t>
+  </si>
+  <si>
+    <t>AddressDetailsSendBack</t>
+  </si>
+  <si>
+    <t>Address Details</t>
+  </si>
+  <si>
+    <t>//a[text()='PSL Details']</t>
+  </si>
+  <si>
+    <t>Priority Sector Lending Detail Send Back</t>
+  </si>
+  <si>
+    <t>PrioritySectorLendingDetailSendBack</t>
+  </si>
+  <si>
+    <t>ScrollDown(2000)</t>
+  </si>
+  <si>
+    <t>ClickOnLeftSideEditSign</t>
+  </si>
+  <si>
+    <t>Loan Asset Details Send Back</t>
+  </si>
+  <si>
+    <t>LoanAssetDetailsSendBack</t>
+  </si>
+  <si>
+    <t>//a[text()='Banking Details']</t>
+  </si>
+  <si>
+    <t>Banking Details Send Back</t>
+  </si>
+  <si>
+    <t>BankingDetailsSendBack</t>
+  </si>
+  <si>
+    <t>//span[text()='No Send Back']</t>
+  </si>
+  <si>
+    <t>//button[text()='Save']</t>
+  </si>
+  <si>
+    <t>ScrollUp(2500)</t>
+  </si>
+  <si>
+    <t>ScrollDown(2500)</t>
+  </si>
+  <si>
+    <t>(//div[@part="dual-listbox"])[6]</t>
+  </si>
+  <si>
+    <t>(//span[text()='No Send Back'])[6]</t>
+  </si>
+  <si>
+    <t>(//button[@title="Move to Chosen"])[6]</t>
+  </si>
+  <si>
+    <t>//button[@title="Move to Chosen"]</t>
+  </si>
+  <si>
+    <t>ScrollDown(1800)</t>
+  </si>
+  <si>
+    <t>//button[@title='Edit Verified']</t>
+  </si>
+  <si>
+    <t>(//table[@aria-label="Sanction Conditions"]/tbody/tr/td[4]/lightning-primitive-cell-factory/span/div/lightning-primitive-custom-cell/lst-list-view-row-level-action/lightning-button-menu/button)[1]</t>
+  </si>
+  <si>
+    <t>ScrollDown(100)</t>
+  </si>
+  <si>
+    <t>//span[text()='Verified']</t>
+  </si>
+  <si>
+    <t>//div[@part="dual-listbox"]</t>
+  </si>
+  <si>
+    <t>//strong[text()='Are you sure you want to proceed with Loan Application?']</t>
+  </si>
+  <si>
+    <t>//button[text()='Yes']</t>
+  </si>
+  <si>
+    <t>WAIT(6000)</t>
+  </si>
+  <si>
+    <t>//a[@title="Edit"]</t>
+  </si>
+  <si>
+    <t>WAIT(20000)</t>
+  </si>
+  <si>
+    <t>//button[text()='OK']</t>
+  </si>
+  <si>
+    <t>//button[text()='Close']</t>
+  </si>
+  <si>
+    <t>(//force-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow']//div[@class='slds-grid']/a/span/slot/span)[2]</t>
+  </si>
+  <si>
+    <t>(//a[text()='Approvals'])[1]</t>
+  </si>
+  <si>
+    <t>ScrollDown(1000)</t>
+  </si>
+  <si>
+    <t>(//a[text()='Loan Assets'])[1]</t>
+  </si>
+  <si>
+    <t>(//a[text()='Applicants'])[1]</t>
+  </si>
+  <si>
+    <t>(//button[text()='Dedupe Review'])[1]</t>
+  </si>
+  <si>
+    <t>(//button[text()='Proceed' and @name = 'Opportunity.CPC_Proceed'])</t>
+  </si>
+  <si>
+    <t>(//button[text()='Proceed'])[2]</t>
+  </si>
+  <si>
+    <t>MF24121000006346</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,21 +590,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,26 +625,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,9 +969,9 @@
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="181.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="170.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.21875" bestFit="1" customWidth="1"/>
@@ -814,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -850,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -859,7 +1078,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -886,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -922,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -961,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1006,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1051,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1096,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1132,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -1177,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1222,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1267,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1312,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1357,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1402,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1447,12 +1666,12 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1483,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1528,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1573,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1618,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1663,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1699,7 +1918,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1740,11 +1959,11 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" ref="A24:A25" si="8">A23+1</f>
+        <f t="shared" ref="A24" si="8">A23+1</f>
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1785,20 +2004,20 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" ref="A25" si="9">A23+1</f>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1821,11 +2040,11 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" ref="A26:A43" si="9">A24+1</f>
+        <f>A24+1</f>
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -1833,14 +2052,8 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -1855,37 +2068,34 @@
         <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f>A24+1</f>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -1908,11 +2118,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A28:A45" si="10">A26+1</f>
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -1924,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -1953,11 +2163,11 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1969,13 +2179,13 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -1998,11 +2208,11 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2014,13 +2224,13 @@
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
         <v>90</v>
       </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
         <v>16</v>
@@ -2043,11 +2253,11 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2059,13 +2269,13 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -2088,11 +2298,11 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2104,13 +2314,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -2133,11 +2343,11 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="9"/>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -2149,13 +2359,13 @@
         <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -2178,11 +2388,11 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" ref="A34:A35" si="10">A32+1</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2190,8 +2400,17 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -2206,19 +2425,19 @@
         <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f>A32+1</f>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -2251,10 +2470,10 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>A33+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2262,14 +2481,8 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -2284,19 +2497,19 @@
         <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="9"/>
-        <v>27</v>
+        <f>A34+1</f>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2304,17 +2517,8 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -2329,37 +2533,34 @@
         <v>45</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="9"/>
-        <v>27</v>
+        <f>A34+1</f>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -2382,11 +2583,11 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2398,13 +2599,13 @@
         <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -2427,11 +2628,11 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2443,13 +2644,13 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -2472,11 +2673,11 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2488,13 +2689,13 @@
         <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
         <v>90</v>
       </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -2517,11 +2718,11 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" si="9"/>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -2533,7 +2734,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -2562,11 +2763,11 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <f t="shared" si="9"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -2578,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -2605,103 +2806,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <f t="shared" ref="A47:A54" si="11">A46+1</f>
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" ref="A49:A56" si="11">A48+1</f>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2713,7 +2914,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -2743,10 +2944,10 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2758,7 +2959,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
         <v>26</v>
@@ -2788,10 +2989,10 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2803,10 +3004,13 @@
         <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
         <v>16</v>
@@ -2830,10 +3034,10 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -2845,13 +3049,13 @@
         <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J52" t="s">
         <v>16</v>
@@ -2875,10 +3079,10 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2890,13 +3094,10 @@
         <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="J53" t="s">
         <v>16</v>
@@ -2920,10 +3121,10 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2931,8 +3132,17 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s">
         <v>16</v>
@@ -2947,19 +3157,19 @@
         <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <f>A52+1</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2967,9 +3177,17 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -2992,11 +3210,11 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <f>A53+1</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -3004,17 +3222,8 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="J56" t="s">
         <v>16</v>
@@ -3029,37 +3238,29 @@
         <v>45</v>
       </c>
       <c r="N56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <f>A56+1</f>
-        <v>9</v>
+        <f>A54+1</f>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J57" t="s">
         <v>16</v>
@@ -3082,11 +3283,11 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <f t="shared" ref="A58:A59" si="12">A56+1</f>
-        <v>9</v>
+        <f>A55+1</f>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -3094,11 +3295,17 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J58" t="s">
         <v>16</v>
@@ -3113,28 +3320,37 @@
         <v>45</v>
       </c>
       <c r="N58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>A58+1</f>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
-        <v>15</v>
+      <c r="D59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J59" t="s">
         <v>16</v>
@@ -3149,196 +3365,5893 @@
         <v>45</v>
       </c>
       <c r="N59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <f t="shared" ref="A60" si="13">A57+1</f>
+        <f t="shared" ref="A60" si="12">A58+1</f>
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f>A59+1</f>
         <v>10</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N61" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f>A59+1</f>
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" t="s">
-        <v>43</v>
-      </c>
-      <c r="L60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" t="s">
-        <v>45</v>
-      </c>
-      <c r="N60" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <f t="shared" ref="A68:A71" si="14">A67+1</f>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>45</v>
+      </c>
+      <c r="N62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" ref="A70:A79" si="13">A69+1</f>
         <v>1</v>
       </c>
-      <c r="B68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J68" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" t="s">
-        <v>43</v>
-      </c>
-      <c r="L68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N68" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" t="s">
-        <v>43</v>
-      </c>
-      <c r="L69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>45</v>
-      </c>
-      <c r="N69" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
+        <v>45</v>
+      </c>
+      <c r="N70" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" t="s">
+        <v>45</v>
+      </c>
+      <c r="N71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" ref="A72:A74" si="14">A70+1</f>
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
+        <v>43</v>
+      </c>
+      <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>45</v>
+      </c>
+      <c r="N72" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f>A71+1</f>
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s">
+        <v>45</v>
+      </c>
+      <c r="N73" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>43</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>45</v>
+      </c>
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f>A73+1</f>
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>43</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N75" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
+        <v>45</v>
+      </c>
+      <c r="N76" t="s">
+        <v>33</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f>A75+1</f>
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>43</v>
+      </c>
+      <c r="L77" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" t="s">
+        <v>45</v>
+      </c>
+      <c r="N77" t="s">
+        <v>33</v>
+      </c>
+      <c r="O77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" t="s">
+        <v>45</v>
+      </c>
+      <c r="N78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N79" t="s">
+        <v>33</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f t="shared" ref="A80" si="15">A78+1</f>
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
+        <v>43</v>
+      </c>
+      <c r="L80" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" t="s">
+        <v>45</v>
+      </c>
+      <c r="N80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <f>A82+1</f>
         <v>1</v>
       </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>43</v>
+      </c>
+      <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" t="s">
+        <v>33</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <f t="shared" ref="A85" si="16">A83+1</f>
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
+        <v>45</v>
+      </c>
+      <c r="N85" t="s">
+        <v>34</v>
+      </c>
+      <c r="O85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <f>A84+1</f>
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
+        <v>43</v>
+      </c>
+      <c r="L86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <f>A84+1</f>
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>43</v>
+      </c>
+      <c r="L87" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" t="s">
+        <v>45</v>
+      </c>
+      <c r="N87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <f t="shared" ref="A88:A91" si="17">A87+1</f>
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>43</v>
+      </c>
+      <c r="L88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" t="s">
+        <v>45</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>43</v>
+      </c>
+      <c r="L89" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" t="s">
+        <v>45</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <f>A88+1</f>
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L90" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" t="s">
+        <v>45</v>
+      </c>
+      <c r="N90" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="s">
+        <v>43</v>
+      </c>
+      <c r="L91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" t="s">
+        <v>45</v>
+      </c>
+      <c r="N91" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="e">
+        <f>A234+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>43</v>
+      </c>
+      <c r="L97" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" t="s">
+        <v>45</v>
+      </c>
+      <c r="N97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="e">
+        <f>A235+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>43</v>
+      </c>
+      <c r="L98" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" t="s">
+        <v>45</v>
+      </c>
+      <c r="N98" t="s">
+        <v>33</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="e">
+        <f>A97+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99" t="s">
+        <v>34</v>
+      </c>
+      <c r="O99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>43</v>
+      </c>
+      <c r="L100" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" t="s">
+        <v>45</v>
+      </c>
+      <c r="N100" t="s">
+        <v>33</v>
+      </c>
+      <c r="O100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="s">
+        <v>43</v>
+      </c>
+      <c r="L101" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" t="s">
+        <v>45</v>
+      </c>
+      <c r="N101" t="s">
+        <v>33</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="e">
+        <f t="shared" ref="A102:A103" si="18">A101+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
+        <v>43</v>
+      </c>
+      <c r="L102" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" t="s">
+        <v>33</v>
+      </c>
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>43</v>
+      </c>
+      <c r="L103" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" t="s">
+        <v>45</v>
+      </c>
+      <c r="N103" t="s">
+        <v>33</v>
+      </c>
+      <c r="O103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="e">
+        <f t="shared" ref="A104" si="19">A102+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>43</v>
+      </c>
+      <c r="L104" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" t="s">
+        <v>45</v>
+      </c>
+      <c r="N104" t="s">
+        <v>34</v>
+      </c>
+      <c r="O104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>43</v>
+      </c>
+      <c r="L108" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" t="s">
+        <v>45</v>
+      </c>
+      <c r="N108" t="s">
+        <v>33</v>
+      </c>
+      <c r="O108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <f t="shared" ref="A109" si="20">A107+1</f>
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
+        <v>43</v>
+      </c>
+      <c r="L109" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" t="s">
+        <v>45</v>
+      </c>
+      <c r="N109" t="s">
+        <v>34</v>
+      </c>
+      <c r="O109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="e">
+        <f>A108+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>174</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
+        <v>43</v>
+      </c>
+      <c r="L110" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" t="s">
+        <v>45</v>
+      </c>
+      <c r="N110" t="s">
+        <v>33</v>
+      </c>
+      <c r="O110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="e">
+        <f t="shared" ref="A111" si="21">A110+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="s">
+        <v>43</v>
+      </c>
+      <c r="L111" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" t="s">
+        <v>45</v>
+      </c>
+      <c r="N111" t="s">
+        <v>33</v>
+      </c>
+      <c r="O111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+      <c r="F119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <f t="shared" ref="A120:A125" si="22">A119+1</f>
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" t="s">
+        <v>121</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s">
+        <v>43</v>
+      </c>
+      <c r="L120" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" t="s">
+        <v>45</v>
+      </c>
+      <c r="N120" t="s">
+        <v>33</v>
+      </c>
+      <c r="O120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <f>A119+1</f>
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>122</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+      <c r="K121" t="s">
+        <v>43</v>
+      </c>
+      <c r="L121" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" t="s">
+        <v>33</v>
+      </c>
+      <c r="O121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
+        <v>43</v>
+      </c>
+      <c r="L122" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" t="s">
+        <v>45</v>
+      </c>
+      <c r="N122" t="s">
+        <v>33</v>
+      </c>
+      <c r="O122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
+        <v>114</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" t="s">
+        <v>43</v>
+      </c>
+      <c r="L123" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" t="s">
+        <v>45</v>
+      </c>
+      <c r="N123" t="s">
+        <v>33</v>
+      </c>
+      <c r="O123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <f>A122+1</f>
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" t="s">
         <v>104</v>
       </c>
-      <c r="J71" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" t="s">
-        <v>43</v>
-      </c>
-      <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>45</v>
-      </c>
-      <c r="N71" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" t="s">
+        <v>43</v>
+      </c>
+      <c r="L124" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" t="s">
+        <v>45</v>
+      </c>
+      <c r="N124" t="s">
+        <v>33</v>
+      </c>
+      <c r="O124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" t="s">
+        <v>43</v>
+      </c>
+      <c r="L125" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" t="s">
+        <v>45</v>
+      </c>
+      <c r="N125" t="s">
+        <v>33</v>
+      </c>
+      <c r="O125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <f t="shared" ref="A129:A135" si="23">A127+1</f>
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
+        <v>43</v>
+      </c>
+      <c r="L129" t="s">
+        <v>18</v>
+      </c>
+      <c r="M129" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" t="s">
+        <v>34</v>
+      </c>
+      <c r="O129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <f>A128+1</f>
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" t="s">
+        <v>43</v>
+      </c>
+      <c r="L130" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" t="s">
+        <v>45</v>
+      </c>
+      <c r="N130" t="s">
+        <v>33</v>
+      </c>
+      <c r="O130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <f>A129+1</f>
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="H131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" t="s">
+        <v>43</v>
+      </c>
+      <c r="L131" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" t="s">
+        <v>45</v>
+      </c>
+      <c r="N131" t="s">
+        <v>33</v>
+      </c>
+      <c r="O131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <f>A129+1</f>
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" t="s">
+        <v>34</v>
+      </c>
+      <c r="O132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <f>A130+1</f>
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
+        <v>43</v>
+      </c>
+      <c r="L133" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" t="s">
+        <v>33</v>
+      </c>
+      <c r="O133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" t="s">
+        <v>43</v>
+      </c>
+      <c r="L134" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" t="s">
+        <v>33</v>
+      </c>
+      <c r="O134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" t="s">
+        <v>100</v>
+      </c>
+      <c r="G135" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s">
+        <v>43</v>
+      </c>
+      <c r="L135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" t="s">
+        <v>33</v>
+      </c>
+      <c r="O135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <f t="shared" ref="A139:A145" si="24">A137+1</f>
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" t="s">
+        <v>43</v>
+      </c>
+      <c r="L139" t="s">
+        <v>18</v>
+      </c>
+      <c r="M139" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" t="s">
+        <v>34</v>
+      </c>
+      <c r="O139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <f>A138+1</f>
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G140" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" t="s">
+        <v>43</v>
+      </c>
+      <c r="L140" t="s">
+        <v>18</v>
+      </c>
+      <c r="M140" t="s">
+        <v>45</v>
+      </c>
+      <c r="N140" t="s">
+        <v>33</v>
+      </c>
+      <c r="O140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <f>A139+1</f>
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="H141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" t="s">
+        <v>43</v>
+      </c>
+      <c r="L141" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" t="s">
+        <v>45</v>
+      </c>
+      <c r="N141" t="s">
+        <v>33</v>
+      </c>
+      <c r="O141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <f>A139+1</f>
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" t="s">
+        <v>43</v>
+      </c>
+      <c r="L142" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" t="s">
+        <v>45</v>
+      </c>
+      <c r="N142" t="s">
+        <v>34</v>
+      </c>
+      <c r="O142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <f>A140+1</f>
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" t="s">
+        <v>112</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" t="s">
+        <v>43</v>
+      </c>
+      <c r="L143" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" t="s">
+        <v>45</v>
+      </c>
+      <c r="N143" t="s">
+        <v>33</v>
+      </c>
+      <c r="O143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>110</v>
+      </c>
+      <c r="G144" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" t="s">
+        <v>43</v>
+      </c>
+      <c r="L144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" t="s">
+        <v>45</v>
+      </c>
+      <c r="N144" t="s">
+        <v>33</v>
+      </c>
+      <c r="O144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" t="s">
+        <v>111</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" t="s">
+        <v>43</v>
+      </c>
+      <c r="L145" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" t="s">
+        <v>45</v>
+      </c>
+      <c r="N145" t="s">
+        <v>33</v>
+      </c>
+      <c r="O145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <f t="shared" ref="A151:A157" si="25">A149+1</f>
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+      <c r="K151" t="s">
+        <v>43</v>
+      </c>
+      <c r="L151" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" t="s">
+        <v>45</v>
+      </c>
+      <c r="N151" t="s">
+        <v>34</v>
+      </c>
+      <c r="O151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <f>A150+1</f>
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K152" t="s">
+        <v>43</v>
+      </c>
+      <c r="L152" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" t="s">
+        <v>33</v>
+      </c>
+      <c r="O152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <f>A151+1</f>
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="H153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" t="s">
+        <v>43</v>
+      </c>
+      <c r="L153" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" t="s">
+        <v>33</v>
+      </c>
+      <c r="O153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <f>A151+1</f>
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>43</v>
+      </c>
+      <c r="L154" t="s">
+        <v>18</v>
+      </c>
+      <c r="M154" t="s">
+        <v>45</v>
+      </c>
+      <c r="N154" t="s">
+        <v>34</v>
+      </c>
+      <c r="O154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <f>A152+1</f>
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>125</v>
+      </c>
+      <c r="G155" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+      <c r="K155" t="s">
+        <v>43</v>
+      </c>
+      <c r="L155" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" t="s">
+        <v>45</v>
+      </c>
+      <c r="N155" t="s">
+        <v>33</v>
+      </c>
+      <c r="O155" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
+        <v>126</v>
+      </c>
+      <c r="G156" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" t="s">
+        <v>43</v>
+      </c>
+      <c r="L156" t="s">
+        <v>18</v>
+      </c>
+      <c r="M156" t="s">
+        <v>45</v>
+      </c>
+      <c r="N156" t="s">
+        <v>33</v>
+      </c>
+      <c r="O156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" t="s">
+        <v>127</v>
+      </c>
+      <c r="G157" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" t="s">
+        <v>43</v>
+      </c>
+      <c r="L157" t="s">
+        <v>18</v>
+      </c>
+      <c r="M157" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" t="s">
+        <v>33</v>
+      </c>
+      <c r="O157" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <f t="shared" ref="A158" si="26">A157+1</f>
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" t="s">
+        <v>26</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" t="s">
+        <v>43</v>
+      </c>
+      <c r="L158" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" t="s">
+        <v>33</v>
+      </c>
+      <c r="O158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <f t="shared" ref="A159" si="27">A157+1</f>
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>43</v>
+      </c>
+      <c r="L159" t="s">
+        <v>18</v>
+      </c>
+      <c r="M159" t="s">
+        <v>45</v>
+      </c>
+      <c r="N159" t="s">
+        <v>34</v>
+      </c>
+      <c r="O159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <f>A164+1</f>
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" t="s">
+        <v>138</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" t="s">
+        <v>43</v>
+      </c>
+      <c r="L166" t="s">
+        <v>18</v>
+      </c>
+      <c r="M166" t="s">
+        <v>45</v>
+      </c>
+      <c r="N166" t="s">
+        <v>33</v>
+      </c>
+      <c r="O166" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <f t="shared" ref="A167" si="28">A165+1</f>
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" t="s">
+        <v>43</v>
+      </c>
+      <c r="L167" t="s">
+        <v>18</v>
+      </c>
+      <c r="M167" t="s">
+        <v>45</v>
+      </c>
+      <c r="N167" t="s">
+        <v>34</v>
+      </c>
+      <c r="O167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <f>A165+1</f>
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G168" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" t="s">
+        <v>43</v>
+      </c>
+      <c r="L168" t="s">
+        <v>18</v>
+      </c>
+      <c r="M168" t="s">
+        <v>45</v>
+      </c>
+      <c r="N168" t="s">
+        <v>33</v>
+      </c>
+      <c r="O168" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <f>A166+1</f>
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" t="s">
+        <v>43</v>
+      </c>
+      <c r="L169" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" t="s">
+        <v>45</v>
+      </c>
+      <c r="N169" t="s">
+        <v>34</v>
+      </c>
+      <c r="O169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <f>A168+1</f>
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" t="s">
+        <v>43</v>
+      </c>
+      <c r="L170" t="s">
+        <v>18</v>
+      </c>
+      <c r="M170" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" t="s">
+        <v>33</v>
+      </c>
+      <c r="O170" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+      <c r="K171" t="s">
+        <v>43</v>
+      </c>
+      <c r="L171" t="s">
+        <v>18</v>
+      </c>
+      <c r="M171" t="s">
+        <v>45</v>
+      </c>
+      <c r="N171" t="s">
+        <v>34</v>
+      </c>
+      <c r="O171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="e">
+        <f t="shared" ref="A172:A176" si="29">A171+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B172" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>98</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+      <c r="K172" t="s">
+        <v>43</v>
+      </c>
+      <c r="L172" t="s">
+        <v>18</v>
+      </c>
+      <c r="M172" t="s">
+        <v>45</v>
+      </c>
+      <c r="N172" t="s">
+        <v>33</v>
+      </c>
+      <c r="O172" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B173" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
+        <v>128</v>
+      </c>
+      <c r="G173" t="s">
+        <v>27</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J173" t="s">
+        <v>16</v>
+      </c>
+      <c r="K173" t="s">
+        <v>43</v>
+      </c>
+      <c r="L173" t="s">
+        <v>18</v>
+      </c>
+      <c r="M173" t="s">
+        <v>45</v>
+      </c>
+      <c r="N173" t="s">
+        <v>33</v>
+      </c>
+      <c r="O173" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="e">
+        <f>A172+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B174" t="s">
+        <v>81</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>129</v>
+      </c>
+      <c r="G174" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+      <c r="K174" t="s">
+        <v>43</v>
+      </c>
+      <c r="L174" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" t="s">
+        <v>45</v>
+      </c>
+      <c r="N174" t="s">
+        <v>33</v>
+      </c>
+      <c r="O174" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B175" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175" t="s">
+        <v>130</v>
+      </c>
+      <c r="G175" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" t="s">
+        <v>16</v>
+      </c>
+      <c r="K175" t="s">
+        <v>43</v>
+      </c>
+      <c r="L175" t="s">
+        <v>18</v>
+      </c>
+      <c r="M175" t="s">
+        <v>45</v>
+      </c>
+      <c r="N175" t="s">
+        <v>33</v>
+      </c>
+      <c r="O175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B176" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" t="s">
+        <v>150</v>
+      </c>
+      <c r="G176" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" t="s">
+        <v>16</v>
+      </c>
+      <c r="K176" t="s">
+        <v>43</v>
+      </c>
+      <c r="L176" t="s">
+        <v>18</v>
+      </c>
+      <c r="M176" t="s">
+        <v>45</v>
+      </c>
+      <c r="N176" t="s">
+        <v>33</v>
+      </c>
+      <c r="O176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="e">
+        <f t="shared" ref="A177" si="30">A175+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B177" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+      <c r="K177" t="s">
+        <v>43</v>
+      </c>
+      <c r="L177" t="s">
+        <v>18</v>
+      </c>
+      <c r="M177" t="s">
+        <v>45</v>
+      </c>
+      <c r="N177" t="s">
+        <v>34</v>
+      </c>
+      <c r="O177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="e">
+        <f>A175+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B178" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J178" t="s">
+        <v>16</v>
+      </c>
+      <c r="K178" t="s">
+        <v>43</v>
+      </c>
+      <c r="L178" t="s">
+        <v>18</v>
+      </c>
+      <c r="M178" t="s">
+        <v>45</v>
+      </c>
+      <c r="N178" t="s">
+        <v>33</v>
+      </c>
+      <c r="O178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="e">
+        <f>A175+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B179" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J179" t="s">
+        <v>16</v>
+      </c>
+      <c r="K179" t="s">
+        <v>43</v>
+      </c>
+      <c r="L179" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" t="s">
+        <v>45</v>
+      </c>
+      <c r="N179" t="s">
+        <v>34</v>
+      </c>
+      <c r="O179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="e">
+        <f>A211+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B185" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>30</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G185" t="s">
+        <v>26</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" t="s">
+        <v>16</v>
+      </c>
+      <c r="K185" t="s">
+        <v>43</v>
+      </c>
+      <c r="L185" t="s">
+        <v>18</v>
+      </c>
+      <c r="M185" t="s">
+        <v>45</v>
+      </c>
+      <c r="N185" t="s">
+        <v>33</v>
+      </c>
+      <c r="O185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="e">
+        <f>A211+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B186" t="s">
+        <v>81</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J186" t="s">
+        <v>16</v>
+      </c>
+      <c r="K186" t="s">
+        <v>43</v>
+      </c>
+      <c r="L186" t="s">
+        <v>18</v>
+      </c>
+      <c r="M186" t="s">
+        <v>45</v>
+      </c>
+      <c r="N186" t="s">
+        <v>34</v>
+      </c>
+      <c r="O186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="e">
+        <f>A185+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B187" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>98</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J187" t="s">
+        <v>16</v>
+      </c>
+      <c r="K187" t="s">
+        <v>43</v>
+      </c>
+      <c r="L187" t="s">
+        <v>18</v>
+      </c>
+      <c r="M187" t="s">
+        <v>45</v>
+      </c>
+      <c r="N187" t="s">
+        <v>33</v>
+      </c>
+      <c r="O187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="e">
+        <f t="shared" ref="A188:A193" si="31">A187+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B188" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>153</v>
+      </c>
+      <c r="G188" t="s">
+        <v>27</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J188" t="s">
+        <v>16</v>
+      </c>
+      <c r="K188" t="s">
+        <v>43</v>
+      </c>
+      <c r="L188" t="s">
+        <v>18</v>
+      </c>
+      <c r="M188" t="s">
+        <v>45</v>
+      </c>
+      <c r="N188" t="s">
+        <v>33</v>
+      </c>
+      <c r="O188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="e">
+        <f>A187+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B189" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>154</v>
+      </c>
+      <c r="G189" t="s">
+        <v>26</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J189" t="s">
+        <v>16</v>
+      </c>
+      <c r="K189" t="s">
+        <v>43</v>
+      </c>
+      <c r="L189" t="s">
+        <v>18</v>
+      </c>
+      <c r="M189" t="s">
+        <v>45</v>
+      </c>
+      <c r="N189" t="s">
+        <v>33</v>
+      </c>
+      <c r="O189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B190" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" t="s">
+        <v>155</v>
+      </c>
+      <c r="G190" t="s">
+        <v>26</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J190" t="s">
+        <v>16</v>
+      </c>
+      <c r="K190" t="s">
+        <v>43</v>
+      </c>
+      <c r="L190" t="s">
+        <v>18</v>
+      </c>
+      <c r="M190" t="s">
+        <v>45</v>
+      </c>
+      <c r="N190" t="s">
+        <v>33</v>
+      </c>
+      <c r="O190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K191" t="s">
+        <v>43</v>
+      </c>
+      <c r="L191" t="s">
+        <v>18</v>
+      </c>
+      <c r="M191" t="s">
+        <v>45</v>
+      </c>
+      <c r="N191" t="s">
+        <v>33</v>
+      </c>
+      <c r="O191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192" t="s">
+        <v>150</v>
+      </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" t="s">
+        <v>16</v>
+      </c>
+      <c r="K192" t="s">
+        <v>43</v>
+      </c>
+      <c r="L192" t="s">
+        <v>18</v>
+      </c>
+      <c r="M192" t="s">
+        <v>45</v>
+      </c>
+      <c r="N192" t="s">
+        <v>33</v>
+      </c>
+      <c r="O192" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B193" t="s">
+        <v>81</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J193" t="s">
+        <v>16</v>
+      </c>
+      <c r="K193" t="s">
+        <v>43</v>
+      </c>
+      <c r="L193" t="s">
+        <v>18</v>
+      </c>
+      <c r="M193" t="s">
+        <v>45</v>
+      </c>
+      <c r="N193" t="s">
+        <v>33</v>
+      </c>
+      <c r="O193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="e">
+        <f>A191+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B194" t="s">
+        <v>81</v>
+      </c>
+      <c r="C194" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+      <c r="K194" t="s">
+        <v>43</v>
+      </c>
+      <c r="L194" t="s">
+        <v>18</v>
+      </c>
+      <c r="M194" t="s">
+        <v>45</v>
+      </c>
+      <c r="N194" t="s">
+        <v>33</v>
+      </c>
+      <c r="O194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="e">
+        <f>A191+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B195" t="s">
+        <v>81</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J195" t="s">
+        <v>16</v>
+      </c>
+      <c r="K195" t="s">
+        <v>43</v>
+      </c>
+      <c r="L195" t="s">
+        <v>18</v>
+      </c>
+      <c r="M195" t="s">
+        <v>45</v>
+      </c>
+      <c r="N195" t="s">
+        <v>34</v>
+      </c>
+      <c r="O195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B211" t="s">
+        <v>81</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" t="s">
+        <v>146</v>
+      </c>
+      <c r="G211" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J211" t="s">
+        <v>16</v>
+      </c>
+      <c r="K211" t="s">
+        <v>43</v>
+      </c>
+      <c r="L211" t="s">
+        <v>18</v>
+      </c>
+      <c r="M211" t="s">
+        <v>45</v>
+      </c>
+      <c r="N211" t="s">
+        <v>33</v>
+      </c>
+      <c r="O211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="e">
+        <f>A211+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B212" t="s">
+        <v>81</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J212" t="s">
+        <v>16</v>
+      </c>
+      <c r="K212" t="s">
+        <v>43</v>
+      </c>
+      <c r="L212" t="s">
+        <v>18</v>
+      </c>
+      <c r="M212" t="s">
+        <v>45</v>
+      </c>
+      <c r="N212" t="s">
+        <v>34</v>
+      </c>
+      <c r="O212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="e">
+        <f t="shared" ref="A213:A217" si="32">A212+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B213" t="s">
+        <v>81</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="1"/>
+      <c r="H213" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J213" t="s">
+        <v>16</v>
+      </c>
+      <c r="K213" t="s">
+        <v>43</v>
+      </c>
+      <c r="L213" t="s">
+        <v>18</v>
+      </c>
+      <c r="M213" t="s">
+        <v>45</v>
+      </c>
+      <c r="N213" t="s">
+        <v>33</v>
+      </c>
+      <c r="O213" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B214" t="s">
+        <v>81</v>
+      </c>
+      <c r="C214" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>117</v>
+      </c>
+      <c r="G214" t="s">
+        <v>148</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J214" t="s">
+        <v>16</v>
+      </c>
+      <c r="K214" t="s">
+        <v>43</v>
+      </c>
+      <c r="L214" t="s">
+        <v>18</v>
+      </c>
+      <c r="M214" t="s">
+        <v>45</v>
+      </c>
+      <c r="N214" t="s">
+        <v>33</v>
+      </c>
+      <c r="O214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B215" t="s">
+        <v>81</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215" t="s">
+        <v>114</v>
+      </c>
+      <c r="G215" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J215" t="s">
+        <v>16</v>
+      </c>
+      <c r="K215" t="s">
+        <v>43</v>
+      </c>
+      <c r="L215" t="s">
+        <v>18</v>
+      </c>
+      <c r="M215" t="s">
+        <v>45</v>
+      </c>
+      <c r="N215" t="s">
+        <v>33</v>
+      </c>
+      <c r="O215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B216" t="s">
+        <v>81</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" t="s">
+        <v>149</v>
+      </c>
+      <c r="G216" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J216" t="s">
+        <v>16</v>
+      </c>
+      <c r="K216" t="s">
+        <v>43</v>
+      </c>
+      <c r="L216" t="s">
+        <v>18</v>
+      </c>
+      <c r="M216" t="s">
+        <v>45</v>
+      </c>
+      <c r="N216" t="s">
+        <v>33</v>
+      </c>
+      <c r="O216" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B217" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" t="s">
+        <v>30</v>
+      </c>
+      <c r="F217" t="s">
+        <v>105</v>
+      </c>
+      <c r="G217" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" t="s">
+        <v>16</v>
+      </c>
+      <c r="K217" t="s">
+        <v>43</v>
+      </c>
+      <c r="L217" t="s">
+        <v>18</v>
+      </c>
+      <c r="M217" t="s">
+        <v>45</v>
+      </c>
+      <c r="N217" t="s">
+        <v>33</v>
+      </c>
+      <c r="O217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="e">
+        <f>A217+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B218" t="s">
+        <v>81</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J218" t="s">
+        <v>16</v>
+      </c>
+      <c r="K218" t="s">
+        <v>43</v>
+      </c>
+      <c r="L218" t="s">
+        <v>18</v>
+      </c>
+      <c r="M218" t="s">
+        <v>45</v>
+      </c>
+      <c r="N218" t="s">
+        <v>34</v>
+      </c>
+      <c r="O218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="e">
+        <f>A193+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B219" t="s">
+        <v>81</v>
+      </c>
+      <c r="C219" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J219" t="s">
+        <v>16</v>
+      </c>
+      <c r="K219" t="s">
+        <v>43</v>
+      </c>
+      <c r="L219" t="s">
+        <v>18</v>
+      </c>
+      <c r="M219" t="s">
+        <v>45</v>
+      </c>
+      <c r="N219" t="s">
+        <v>33</v>
+      </c>
+      <c r="O219" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="e">
+        <f>A219+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B220" t="s">
+        <v>81</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J220" t="s">
+        <v>16</v>
+      </c>
+      <c r="K220" t="s">
+        <v>43</v>
+      </c>
+      <c r="L220" t="s">
+        <v>18</v>
+      </c>
+      <c r="M220" t="s">
+        <v>45</v>
+      </c>
+      <c r="N220" t="s">
+        <v>34</v>
+      </c>
+      <c r="O220" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <f>A231+1</f>
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>81</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>30</v>
+      </c>
+      <c r="F233" t="s">
+        <v>173</v>
+      </c>
+      <c r="G233" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J233" t="s">
+        <v>16</v>
+      </c>
+      <c r="K233" t="s">
+        <v>43</v>
+      </c>
+      <c r="L233" t="s">
+        <v>18</v>
+      </c>
+      <c r="M233" t="s">
+        <v>45</v>
+      </c>
+      <c r="N233" t="s">
+        <v>33</v>
+      </c>
+      <c r="O233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J234" t="s">
+        <v>16</v>
+      </c>
+      <c r="K234" t="s">
+        <v>43</v>
+      </c>
+      <c r="L234" t="s">
+        <v>18</v>
+      </c>
+      <c r="M234" t="s">
+        <v>45</v>
+      </c>
+      <c r="N234" t="s">
+        <v>34</v>
+      </c>
+      <c r="O234" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B235" t="s">
+        <v>81</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="H235" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
-        <v>102</v>
+      <c r="J235" t="s">
+        <v>16</v>
+      </c>
+      <c r="K235" t="s">
+        <v>43</v>
+      </c>
+      <c r="L235" t="s">
+        <v>18</v>
+      </c>
+      <c r="M235" t="s">
+        <v>45</v>
+      </c>
+      <c r="N235" t="s">
+        <v>33</v>
+      </c>
+      <c r="O235" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B236" t="s">
+        <v>81</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J236" t="s">
+        <v>16</v>
+      </c>
+      <c r="K236" t="s">
+        <v>43</v>
+      </c>
+      <c r="L236" t="s">
+        <v>18</v>
+      </c>
+      <c r="M236" t="s">
+        <v>45</v>
+      </c>
+      <c r="N236" t="s">
+        <v>34</v>
+      </c>
+      <c r="O236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B237" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>117</v>
+      </c>
+      <c r="G237" t="s">
+        <v>145</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J237" t="s">
+        <v>16</v>
+      </c>
+      <c r="K237" t="s">
+        <v>43</v>
+      </c>
+      <c r="L237" t="s">
+        <v>18</v>
+      </c>
+      <c r="M237" t="s">
+        <v>45</v>
+      </c>
+      <c r="N237" t="s">
+        <v>33</v>
+      </c>
+      <c r="O237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B238" t="s">
+        <v>81</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" t="s">
+        <v>114</v>
+      </c>
+      <c r="G238" t="s">
+        <v>27</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J238" t="s">
+        <v>16</v>
+      </c>
+      <c r="K238" t="s">
+        <v>43</v>
+      </c>
+      <c r="L238" t="s">
+        <v>18</v>
+      </c>
+      <c r="M238" t="s">
+        <v>45</v>
+      </c>
+      <c r="N238" t="s">
+        <v>33</v>
+      </c>
+      <c r="O238" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B239" t="s">
+        <v>81</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" t="s">
+        <v>149</v>
+      </c>
+      <c r="G239" t="s">
+        <v>26</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J239" t="s">
+        <v>16</v>
+      </c>
+      <c r="K239" t="s">
+        <v>43</v>
+      </c>
+      <c r="L239" t="s">
+        <v>18</v>
+      </c>
+      <c r="M239" t="s">
+        <v>45</v>
+      </c>
+      <c r="N239" t="s">
+        <v>33</v>
+      </c>
+      <c r="O239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B240" t="s">
+        <v>81</v>
+      </c>
+      <c r="C240" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240" t="s">
+        <v>105</v>
+      </c>
+      <c r="G240" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J240" t="s">
+        <v>16</v>
+      </c>
+      <c r="K240" t="s">
+        <v>43</v>
+      </c>
+      <c r="L240" t="s">
+        <v>18</v>
+      </c>
+      <c r="M240" t="s">
+        <v>45</v>
+      </c>
+      <c r="N240" t="s">
+        <v>33</v>
+      </c>
+      <c r="O240" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B241" t="s">
+        <v>81</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J241" t="s">
+        <v>16</v>
+      </c>
+      <c r="K241" t="s">
+        <v>43</v>
+      </c>
+      <c r="L241" t="s">
+        <v>18</v>
+      </c>
+      <c r="M241" t="s">
+        <v>45</v>
+      </c>
+      <c r="N241" t="s">
+        <v>34</v>
+      </c>
+      <c r="O241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B242" t="s">
+        <v>81</v>
+      </c>
+      <c r="C242" t="s">
+        <v>138</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="H242" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J242" t="s">
+        <v>16</v>
+      </c>
+      <c r="K242" t="s">
+        <v>43</v>
+      </c>
+      <c r="L242" t="s">
+        <v>18</v>
+      </c>
+      <c r="M242" t="s">
+        <v>45</v>
+      </c>
+      <c r="N242" t="s">
+        <v>33</v>
+      </c>
+      <c r="O242" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B243" t="s">
+        <v>81</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J243" t="s">
+        <v>16</v>
+      </c>
+      <c r="K243" t="s">
+        <v>43</v>
+      </c>
+      <c r="L243" t="s">
+        <v>18</v>
+      </c>
+      <c r="M243" t="s">
+        <v>45</v>
+      </c>
+      <c r="N243" t="s">
+        <v>34</v>
+      </c>
+      <c r="O243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>81</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250" t="s">
+        <v>16</v>
+      </c>
+      <c r="K250" t="s">
+        <v>43</v>
+      </c>
+      <c r="L250" t="s">
+        <v>18</v>
+      </c>
+      <c r="M250" t="s">
+        <v>45</v>
+      </c>
+      <c r="N250" t="s">
+        <v>33</v>
+      </c>
+      <c r="O250" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
+        <v>81</v>
+      </c>
+      <c r="C251" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>30</v>
+      </c>
+      <c r="F251" t="s">
+        <v>171</v>
+      </c>
+      <c r="G251" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J251" t="s">
+        <v>16</v>
+      </c>
+      <c r="K251" t="s">
+        <v>43</v>
+      </c>
+      <c r="L251" t="s">
+        <v>18</v>
+      </c>
+      <c r="M251" t="s">
+        <v>45</v>
+      </c>
+      <c r="N251" t="s">
+        <v>33</v>
+      </c>
+      <c r="O251" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <f>A96+1</f>
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>81</v>
+      </c>
+      <c r="C252" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J252" t="s">
+        <v>16</v>
+      </c>
+      <c r="K252" t="s">
+        <v>43</v>
+      </c>
+      <c r="L252" t="s">
+        <v>18</v>
+      </c>
+      <c r="M252" t="s">
+        <v>45</v>
+      </c>
+      <c r="N252" t="s">
+        <v>34</v>
+      </c>
+      <c r="O252" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="e">
+        <f>A97+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B253" t="s">
+        <v>81</v>
+      </c>
+      <c r="C253" t="s">
+        <v>138</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="H253" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J253" t="s">
+        <v>16</v>
+      </c>
+      <c r="K253" t="s">
+        <v>43</v>
+      </c>
+      <c r="L253" t="s">
+        <v>18</v>
+      </c>
+      <c r="M253" t="s">
+        <v>45</v>
+      </c>
+      <c r="N253" t="s">
+        <v>33</v>
+      </c>
+      <c r="O253" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="e">
+        <f>A98+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B254" t="s">
+        <v>81</v>
+      </c>
+      <c r="C254" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J254" t="s">
+        <v>16</v>
+      </c>
+      <c r="K254" t="s">
+        <v>43</v>
+      </c>
+      <c r="L254" t="s">
+        <v>18</v>
+      </c>
+      <c r="M254" t="s">
+        <v>45</v>
+      </c>
+      <c r="N254" t="s">
+        <v>34</v>
+      </c>
+      <c r="O254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>81</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" t="s">
+        <v>30</v>
+      </c>
+      <c r="F255" t="s">
+        <v>158</v>
+      </c>
+      <c r="G255" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J255" t="s">
+        <v>16</v>
+      </c>
+      <c r="K255" t="s">
+        <v>43</v>
+      </c>
+      <c r="L255" t="s">
+        <v>18</v>
+      </c>
+      <c r="M255" t="s">
+        <v>45</v>
+      </c>
+      <c r="N255" t="s">
+        <v>33</v>
+      </c>
+      <c r="O255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>81</v>
+      </c>
+      <c r="C256" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J256" t="s">
+        <v>16</v>
+      </c>
+      <c r="K256" t="s">
+        <v>43</v>
+      </c>
+      <c r="L256" t="s">
+        <v>18</v>
+      </c>
+      <c r="M256" t="s">
+        <v>45</v>
+      </c>
+      <c r="N256" t="s">
+        <v>34</v>
+      </c>
+      <c r="O256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>81</v>
+      </c>
+      <c r="C257" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257" t="s">
+        <v>161</v>
+      </c>
+      <c r="G257" t="s">
+        <v>26</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J257" t="s">
+        <v>16</v>
+      </c>
+      <c r="K257" t="s">
+        <v>43</v>
+      </c>
+      <c r="L257" t="s">
+        <v>18</v>
+      </c>
+      <c r="M257" t="s">
+        <v>45</v>
+      </c>
+      <c r="N257" t="s">
+        <v>33</v>
+      </c>
+      <c r="O257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>81</v>
+      </c>
+      <c r="C258" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J258" t="s">
+        <v>16</v>
+      </c>
+      <c r="K258" t="s">
+        <v>43</v>
+      </c>
+      <c r="L258" t="s">
+        <v>18</v>
+      </c>
+      <c r="M258" t="s">
+        <v>45</v>
+      </c>
+      <c r="N258" t="s">
+        <v>34</v>
+      </c>
+      <c r="O258" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>81</v>
+      </c>
+      <c r="C259" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" t="s">
+        <v>30</v>
+      </c>
+      <c r="F259" t="s">
+        <v>150</v>
+      </c>
+      <c r="G259" t="s">
+        <v>26</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J259" t="s">
+        <v>16</v>
+      </c>
+      <c r="K259" t="s">
+        <v>43</v>
+      </c>
+      <c r="L259" t="s">
+        <v>18</v>
+      </c>
+      <c r="M259" t="s">
+        <v>45</v>
+      </c>
+      <c r="N259" t="s">
+        <v>33</v>
+      </c>
+      <c r="O259" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>81</v>
+      </c>
+      <c r="C260" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J260" t="s">
+        <v>16</v>
+      </c>
+      <c r="K260" t="s">
+        <v>43</v>
+      </c>
+      <c r="L260" t="s">
+        <v>18</v>
+      </c>
+      <c r="M260" t="s">
+        <v>45</v>
+      </c>
+      <c r="N260" t="s">
+        <v>34</v>
+      </c>
+      <c r="O260" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>81</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261" s="1"/>
+      <c r="H261" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J261" t="s">
+        <v>16</v>
+      </c>
+      <c r="K261" t="s">
+        <v>43</v>
+      </c>
+      <c r="L261" t="s">
+        <v>18</v>
+      </c>
+      <c r="M261" t="s">
+        <v>45</v>
+      </c>
+      <c r="N261" t="s">
+        <v>33</v>
+      </c>
+      <c r="O261" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>81</v>
+      </c>
+      <c r="C262" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J262" t="s">
+        <v>16</v>
+      </c>
+      <c r="K262" t="s">
+        <v>43</v>
+      </c>
+      <c r="L262" t="s">
+        <v>18</v>
+      </c>
+      <c r="M262" t="s">
+        <v>45</v>
+      </c>
+      <c r="N262" t="s">
+        <v>34</v>
+      </c>
+      <c r="O262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
+        <v>81</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" t="s">
+        <v>30</v>
+      </c>
+      <c r="F263" t="s">
+        <v>159</v>
+      </c>
+      <c r="G263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J263" t="s">
+        <v>16</v>
+      </c>
+      <c r="K263" t="s">
+        <v>43</v>
+      </c>
+      <c r="L263" t="s">
+        <v>18</v>
+      </c>
+      <c r="M263" t="s">
+        <v>45</v>
+      </c>
+      <c r="N263" t="s">
+        <v>33</v>
+      </c>
+      <c r="O263" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>81</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J264" t="s">
+        <v>16</v>
+      </c>
+      <c r="K264" t="s">
+        <v>43</v>
+      </c>
+      <c r="L264" t="s">
+        <v>18</v>
+      </c>
+      <c r="M264" t="s">
+        <v>45</v>
+      </c>
+      <c r="N264" t="s">
+        <v>34</v>
+      </c>
+      <c r="O264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>81</v>
+      </c>
+      <c r="C265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265" t="s">
+        <v>166</v>
+      </c>
+      <c r="G265" t="s">
+        <v>26</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J265" t="s">
+        <v>16</v>
+      </c>
+      <c r="K265" t="s">
+        <v>43</v>
+      </c>
+      <c r="L265" t="s">
+        <v>18</v>
+      </c>
+      <c r="M265" t="s">
+        <v>45</v>
+      </c>
+      <c r="N265" t="s">
+        <v>33</v>
+      </c>
+      <c r="O265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>81</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" t="s">
+        <v>15</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J266" t="s">
+        <v>16</v>
+      </c>
+      <c r="K266" t="s">
+        <v>43</v>
+      </c>
+      <c r="L266" t="s">
+        <v>18</v>
+      </c>
+      <c r="M266" t="s">
+        <v>45</v>
+      </c>
+      <c r="N266" t="s">
+        <v>34</v>
+      </c>
+      <c r="O266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>81</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" t="s">
+        <v>30</v>
+      </c>
+      <c r="F267" t="s">
+        <v>162</v>
+      </c>
+      <c r="G267" t="s">
+        <v>27</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J267" t="s">
+        <v>16</v>
+      </c>
+      <c r="K267" t="s">
+        <v>43</v>
+      </c>
+      <c r="L267" t="s">
+        <v>18</v>
+      </c>
+      <c r="M267" t="s">
+        <v>45</v>
+      </c>
+      <c r="N267" t="s">
+        <v>33</v>
+      </c>
+      <c r="O267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <f>A112+1</f>
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>81</v>
+      </c>
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" t="s">
+        <v>30</v>
+      </c>
+      <c r="F268" t="s">
+        <v>149</v>
+      </c>
+      <c r="G268" t="s">
+        <v>26</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J268" t="s">
+        <v>16</v>
+      </c>
+      <c r="K268" t="s">
+        <v>43</v>
+      </c>
+      <c r="L268" t="s">
+        <v>18</v>
+      </c>
+      <c r="M268" t="s">
+        <v>45</v>
+      </c>
+      <c r="N268" t="s">
+        <v>33</v>
+      </c>
+      <c r="O268" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <f>A113+1</f>
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>81</v>
+      </c>
+      <c r="C269" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" t="s">
+        <v>30</v>
+      </c>
+      <c r="F269" t="s">
+        <v>156</v>
+      </c>
+      <c r="G269" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J269" t="s">
+        <v>16</v>
+      </c>
+      <c r="K269" t="s">
+        <v>43</v>
+      </c>
+      <c r="L269" t="s">
+        <v>18</v>
+      </c>
+      <c r="M269" t="s">
+        <v>45</v>
+      </c>
+      <c r="N269" t="s">
+        <v>33</v>
+      </c>
+      <c r="O269" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <f t="shared" ref="A270" si="33">A269+1</f>
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>81</v>
+      </c>
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" t="s">
+        <v>30</v>
+      </c>
+      <c r="F270" t="s">
+        <v>150</v>
+      </c>
+      <c r="G270" t="s">
+        <v>26</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J270" t="s">
+        <v>16</v>
+      </c>
+      <c r="K270" t="s">
+        <v>43</v>
+      </c>
+      <c r="L270" t="s">
+        <v>18</v>
+      </c>
+      <c r="M270" t="s">
+        <v>45</v>
+      </c>
+      <c r="N270" t="s">
+        <v>33</v>
+      </c>
+      <c r="O270" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>81</v>
+      </c>
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J271" t="s">
+        <v>16</v>
+      </c>
+      <c r="K271" t="s">
+        <v>43</v>
+      </c>
+      <c r="L271" t="s">
+        <v>18</v>
+      </c>
+      <c r="M271" t="s">
+        <v>45</v>
+      </c>
+      <c r="N271" t="s">
+        <v>34</v>
+      </c>
+      <c r="O271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <f>A116+1</f>
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>81</v>
+      </c>
+      <c r="C272" t="s">
+        <v>138</v>
+      </c>
+      <c r="D272" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="H272" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J272" t="s">
+        <v>16</v>
+      </c>
+      <c r="K272" t="s">
+        <v>43</v>
+      </c>
+      <c r="L272" t="s">
+        <v>18</v>
+      </c>
+      <c r="M272" t="s">
+        <v>45</v>
+      </c>
+      <c r="N272" t="s">
+        <v>33</v>
+      </c>
+      <c r="O272" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <f t="shared" ref="A280:A281" si="34">A279+1</f>
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>81</v>
+      </c>
+      <c r="C280" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F280" t="s">
+        <v>176</v>
+      </c>
+      <c r="G280" t="s">
+        <v>26</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J280" t="s">
+        <v>16</v>
+      </c>
+      <c r="K280" t="s">
+        <v>43</v>
+      </c>
+      <c r="L280" t="s">
+        <v>18</v>
+      </c>
+      <c r="M280" t="s">
+        <v>45</v>
+      </c>
+      <c r="N280" t="s">
+        <v>33</v>
+      </c>
+      <c r="O280" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F281" t="s">
+        <v>163</v>
+      </c>
+      <c r="G281" t="s">
+        <v>27</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J281" t="s">
+        <v>16</v>
+      </c>
+      <c r="K281" t="s">
+        <v>43</v>
+      </c>
+      <c r="L281" t="s">
+        <v>18</v>
+      </c>
+      <c r="M281" t="s">
+        <v>45</v>
+      </c>
+      <c r="N281" t="s">
+        <v>33</v>
+      </c>
+      <c r="O281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>81</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" t="s">
+        <v>15</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J282" t="s">
+        <v>16</v>
+      </c>
+      <c r="K282" t="s">
+        <v>43</v>
+      </c>
+      <c r="L282" t="s">
+        <v>18</v>
+      </c>
+      <c r="M282" t="s">
+        <v>45</v>
+      </c>
+      <c r="N282" t="s">
+        <v>34</v>
+      </c>
+      <c r="O282" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <f>A281+1</f>
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>81</v>
+      </c>
+      <c r="C283" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F283" t="s">
+        <v>164</v>
+      </c>
+      <c r="G283" t="s">
+        <v>26</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J283" t="s">
+        <v>16</v>
+      </c>
+      <c r="K283" t="s">
+        <v>43</v>
+      </c>
+      <c r="L283" t="s">
+        <v>18</v>
+      </c>
+      <c r="M283" t="s">
+        <v>45</v>
+      </c>
+      <c r="N283" t="s">
+        <v>33</v>
+      </c>
+      <c r="O283" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
+        <v>81</v>
+      </c>
+      <c r="C284" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" t="s">
+        <v>15</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J284" t="s">
+        <v>16</v>
+      </c>
+      <c r="K284" t="s">
+        <v>43</v>
+      </c>
+      <c r="L284" t="s">
+        <v>18</v>
+      </c>
+      <c r="M284" t="s">
+        <v>45</v>
+      </c>
+      <c r="N284" t="s">
+        <v>34</v>
+      </c>
+      <c r="O284" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <f>A283+1</f>
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>81</v>
+      </c>
+      <c r="C285" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G285" t="s">
+        <v>26</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J285" t="s">
+        <v>16</v>
+      </c>
+      <c r="K285" t="s">
+        <v>43</v>
+      </c>
+      <c r="L285" t="s">
+        <v>18</v>
+      </c>
+      <c r="M285" t="s">
+        <v>45</v>
+      </c>
+      <c r="N285" t="s">
+        <v>33</v>
+      </c>
+      <c r="O285" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <f t="shared" ref="A289:A294" si="35">A288+1</f>
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>81</v>
+      </c>
+      <c r="C289" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" t="s">
+        <v>175</v>
+      </c>
+      <c r="G289" t="s">
+        <v>26</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J289" t="s">
+        <v>16</v>
+      </c>
+      <c r="K289" t="s">
+        <v>43</v>
+      </c>
+      <c r="L289" t="s">
+        <v>18</v>
+      </c>
+      <c r="M289" t="s">
+        <v>45</v>
+      </c>
+      <c r="N289" t="s">
+        <v>33</v>
+      </c>
+      <c r="O289" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>2</v>
+      </c>
+      <c r="B290" t="s">
+        <v>81</v>
+      </c>
+      <c r="C290" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J290" t="s">
+        <v>16</v>
+      </c>
+      <c r="K290" t="s">
+        <v>43</v>
+      </c>
+      <c r="L290" t="s">
+        <v>18</v>
+      </c>
+      <c r="M290" t="s">
+        <v>45</v>
+      </c>
+      <c r="N290" t="s">
+        <v>34</v>
+      </c>
+      <c r="O290" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <f>A289+1</f>
+        <v>2</v>
+      </c>
+      <c r="B291" t="s">
+        <v>81</v>
+      </c>
+      <c r="C291" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F291" t="s">
+        <v>177</v>
+      </c>
+      <c r="G291" t="s">
+        <v>27</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J291" t="s">
+        <v>16</v>
+      </c>
+      <c r="K291" t="s">
+        <v>43</v>
+      </c>
+      <c r="L291" t="s">
+        <v>18</v>
+      </c>
+      <c r="M291" t="s">
+        <v>45</v>
+      </c>
+      <c r="N291" t="s">
+        <v>33</v>
+      </c>
+      <c r="O291" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>81</v>
+      </c>
+      <c r="C292" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F292" t="s">
+        <v>177</v>
+      </c>
+      <c r="G292" t="s">
+        <v>26</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J292" t="s">
+        <v>16</v>
+      </c>
+      <c r="K292" t="s">
+        <v>43</v>
+      </c>
+      <c r="L292" t="s">
+        <v>18</v>
+      </c>
+      <c r="M292" t="s">
+        <v>45</v>
+      </c>
+      <c r="N292" t="s">
+        <v>33</v>
+      </c>
+      <c r="O292" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>81</v>
+      </c>
+      <c r="C293" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="1"/>
+      <c r="H293" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J293" t="s">
+        <v>16</v>
+      </c>
+      <c r="K293" t="s">
+        <v>43</v>
+      </c>
+      <c r="L293" t="s">
+        <v>18</v>
+      </c>
+      <c r="M293" t="s">
+        <v>45</v>
+      </c>
+      <c r="N293" t="s">
+        <v>33</v>
+      </c>
+      <c r="O293" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>81</v>
+      </c>
+      <c r="C294" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F294" t="s">
+        <v>168</v>
+      </c>
+      <c r="G294" t="s">
+        <v>26</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J294" t="s">
+        <v>16</v>
+      </c>
+      <c r="K294" t="s">
+        <v>43</v>
+      </c>
+      <c r="L294" t="s">
+        <v>18</v>
+      </c>
+      <c r="M294" t="s">
+        <v>45</v>
+      </c>
+      <c r="N294" t="s">
+        <v>33</v>
+      </c>
+      <c r="O294" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3349,10 +9262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,9 +9285,15 @@
     <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.44140625" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3412,16 +9331,37 @@
         <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3429,7 +9369,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3456,23 +9396,41 @@
         <v>78</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" tooltip="MF24120700003849" display="https://mmfsl--mfuat.sandbox.lightning.force.com/lightning/r/0069H00000BidQjQAJ/view" xr:uid="{5AEC5A84-5399-4A58-B578-B9EE1B5878DF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSheet/CPC_1stTouchPoint_Approval.xlsx
+++ b/DataSheet/CPC_1stTouchPoint_Approval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E6ADB-5B8B-4F71-8D8E-9396525AD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D05F93-0FB4-4083-85E6-832172E615C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <t>(//button[text()='Proceed'])[2]</t>
   </si>
   <si>
-    <t>MF24121000006346</t>
+    <t>MF24121100006429</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+    <sheetView zoomScale="77" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -9264,8 +9264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
